--- a/natmiOut/OldD4/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.333267317468375</v>
+        <v>0.5265343333333333</v>
       </c>
       <c r="H2">
-        <v>0.333267317468375</v>
+        <v>1.579603</v>
       </c>
       <c r="I2">
-        <v>0.008192322898400568</v>
+        <v>0.01258949710924503</v>
       </c>
       <c r="J2">
-        <v>0.008192322898400568</v>
+        <v>0.01274042434033606</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>8.661765713090251</v>
+        <v>17.48696447250866</v>
       </c>
       <c r="R2">
-        <v>8.661765713090251</v>
+        <v>157.382680252578</v>
       </c>
       <c r="S2">
-        <v>0.001548197982886924</v>
+        <v>0.002663688143867663</v>
       </c>
       <c r="T2">
-        <v>0.001548197982886924</v>
+        <v>0.00277140125501207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.333267317468375</v>
+        <v>0.5265343333333333</v>
       </c>
       <c r="H3">
-        <v>0.333267317468375</v>
+        <v>1.579603</v>
       </c>
       <c r="I3">
-        <v>0.008192322898400568</v>
+        <v>0.01258949710924503</v>
       </c>
       <c r="J3">
-        <v>0.008192322898400568</v>
+        <v>0.01274042434033606</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>15.57795655737183</v>
+        <v>26.94499925656045</v>
       </c>
       <c r="R3">
-        <v>15.57795655737183</v>
+        <v>242.504993309044</v>
       </c>
       <c r="S3">
-        <v>0.002784393127047386</v>
+        <v>0.00410437587204216</v>
       </c>
       <c r="T3">
-        <v>0.002784393127047386</v>
+        <v>0.004270346913172291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.333267317468375</v>
+        <v>0.5265343333333333</v>
       </c>
       <c r="H4">
-        <v>0.333267317468375</v>
+        <v>1.579603</v>
       </c>
       <c r="I4">
-        <v>0.008192322898400568</v>
+        <v>0.01258949710924503</v>
       </c>
       <c r="J4">
-        <v>0.008192322898400568</v>
+        <v>0.01274042434033606</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>6.864828264350151</v>
+        <v>11.68616819179255</v>
       </c>
       <c r="R4">
-        <v>6.864828264350151</v>
+        <v>105.175513726133</v>
       </c>
       <c r="S4">
-        <v>0.001227014632324922</v>
+        <v>0.001780086401425369</v>
       </c>
       <c r="T4">
-        <v>0.001227014632324922</v>
+        <v>0.001852068793525134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.333267317468375</v>
+        <v>0.5265343333333333</v>
       </c>
       <c r="H5">
-        <v>0.333267317468375</v>
+        <v>1.579603</v>
       </c>
       <c r="I5">
-        <v>0.008192322898400568</v>
+        <v>0.01258949710924503</v>
       </c>
       <c r="J5">
-        <v>0.008192322898400568</v>
+        <v>0.01274042434033606</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>11.30280549856171</v>
+        <v>19.75144085953911</v>
       </c>
       <c r="R5">
-        <v>11.30280549856171</v>
+        <v>177.762967735852</v>
       </c>
       <c r="S5">
-        <v>0.002020255598392695</v>
+        <v>0.003008622732925929</v>
       </c>
       <c r="T5">
-        <v>0.002020255598392695</v>
+        <v>0.00313028416524086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.333267317468375</v>
+        <v>0.5265343333333333</v>
       </c>
       <c r="H6">
-        <v>0.333267317468375</v>
+        <v>1.579603</v>
       </c>
       <c r="I6">
-        <v>0.008192322898400568</v>
+        <v>0.01258949710924503</v>
       </c>
       <c r="J6">
-        <v>0.008192322898400568</v>
+        <v>0.01274042434033606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>3.426563385388734</v>
+        <v>6.779775336026501</v>
       </c>
       <c r="R6">
-        <v>3.426563385388734</v>
+        <v>40.67865201615901</v>
       </c>
       <c r="S6">
-        <v>0.0006124615577486413</v>
+        <v>0.001032723958983913</v>
       </c>
       <c r="T6">
-        <v>0.0006124615577486413</v>
+        <v>0.0007163232133857094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.1263555377023</v>
+        <v>39.58674566666667</v>
       </c>
       <c r="H7">
-        <v>39.1263555377023</v>
+        <v>118.760237</v>
       </c>
       <c r="I7">
-        <v>0.9617976969280742</v>
+        <v>0.9465236900694383</v>
       </c>
       <c r="J7">
-        <v>0.9617976969280742</v>
+        <v>0.9578709423436643</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>1016.911371475268</v>
+        <v>1314.732907677251</v>
       </c>
       <c r="R7">
-        <v>1016.911371475268</v>
+        <v>11832.59616909526</v>
       </c>
       <c r="S7">
-        <v>0.1817620316967792</v>
+        <v>0.2002656586875396</v>
       </c>
       <c r="T7">
-        <v>0.1817620316967792</v>
+        <v>0.2083639179384508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.1263555377023</v>
+        <v>39.58674566666667</v>
       </c>
       <c r="H8">
-        <v>39.1263555377023</v>
+        <v>118.760237</v>
       </c>
       <c r="I8">
-        <v>0.9617976969280742</v>
+        <v>0.9465236900694383</v>
       </c>
       <c r="J8">
-        <v>0.9617976969280742</v>
+        <v>0.9578709423436643</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>1828.888207354595</v>
+        <v>2025.821993041253</v>
       </c>
       <c r="R8">
-        <v>1828.888207354595</v>
+        <v>18232.39793737128</v>
       </c>
       <c r="S8">
-        <v>0.3268942069482368</v>
+        <v>0.3085817457302934</v>
       </c>
       <c r="T8">
-        <v>0.3268942069482368</v>
+        <v>0.3210600457713486</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.1263555377023</v>
+        <v>39.58674566666667</v>
       </c>
       <c r="H9">
-        <v>39.1263555377023</v>
+        <v>118.760237</v>
       </c>
       <c r="I9">
-        <v>0.9617976969280742</v>
+        <v>0.9465236900694383</v>
       </c>
       <c r="J9">
-        <v>0.9617976969280742</v>
+        <v>0.9578709423436643</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>805.9467499441192</v>
+        <v>878.6081718502339</v>
       </c>
       <c r="R9">
-        <v>805.9467499441192</v>
+        <v>7907.473546652105</v>
       </c>
       <c r="S9">
-        <v>0.144054361882826</v>
+        <v>0.1338333004645812</v>
       </c>
       <c r="T9">
-        <v>0.144054361882826</v>
+        <v>0.1392451956974942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.1263555377023</v>
+        <v>39.58674566666667</v>
       </c>
       <c r="H10">
-        <v>39.1263555377023</v>
+        <v>118.760237</v>
       </c>
       <c r="I10">
-        <v>0.9617976969280742</v>
+        <v>0.9465236900694383</v>
       </c>
       <c r="J10">
-        <v>0.9617976969280742</v>
+        <v>0.9578709423436643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>1326.975563849544</v>
+        <v>1484.984390109634</v>
       </c>
       <c r="R10">
-        <v>1326.975563849544</v>
+        <v>13364.85951098671</v>
       </c>
       <c r="S10">
-        <v>0.237182689920523</v>
+        <v>0.2261990821781618</v>
       </c>
       <c r="T10">
-        <v>0.237182689920523</v>
+        <v>0.23534602640116</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.1263555377023</v>
+        <v>39.58674566666667</v>
       </c>
       <c r="H11">
-        <v>39.1263555377023</v>
+        <v>118.760237</v>
       </c>
       <c r="I11">
-        <v>0.9617976969280742</v>
+        <v>0.9465236900694383</v>
       </c>
       <c r="J11">
-        <v>0.9617976969280742</v>
+        <v>0.9578709423436643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>402.2864837381323</v>
+        <v>509.7279036018936</v>
       </c>
       <c r="R11">
-        <v>402.2864837381323</v>
+        <v>3058.367421611361</v>
       </c>
       <c r="S11">
-        <v>0.07190440647970922</v>
+        <v>0.07764390300886223</v>
       </c>
       <c r="T11">
-        <v>0.07190440647970922</v>
+        <v>0.05385575653521069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.22081926136755</v>
+        <v>0.09530433333333332</v>
       </c>
       <c r="H12">
-        <v>1.22081926136755</v>
+        <v>0.285913</v>
       </c>
       <c r="I12">
-        <v>0.03000998017352515</v>
+        <v>0.002278737687251528</v>
       </c>
       <c r="J12">
-        <v>0.03000998017352515</v>
+        <v>0.00230605598015356</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>31.72963523792596</v>
+        <v>3.165194338848666</v>
       </c>
       <c r="R12">
-        <v>31.72963523792596</v>
+        <v>28.486749049638</v>
       </c>
       <c r="S12">
-        <v>0.005671332947606245</v>
+        <v>0.0004821357444102315</v>
       </c>
       <c r="T12">
-        <v>0.005671332947606245</v>
+        <v>0.0005016321487261456</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.22081926136755</v>
+        <v>0.09530433333333332</v>
       </c>
       <c r="H13">
-        <v>1.22081926136755</v>
+        <v>0.285913</v>
       </c>
       <c r="I13">
-        <v>0.03000998017352515</v>
+        <v>0.002278737687251528</v>
       </c>
       <c r="J13">
-        <v>0.03000998017352515</v>
+        <v>0.00230605598015356</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>57.06490982210139</v>
+        <v>4.877127716547111</v>
       </c>
       <c r="R13">
-        <v>57.06490982210139</v>
+        <v>43.894149448924</v>
       </c>
       <c r="S13">
-        <v>0.01019974231659076</v>
+        <v>0.0007429046530699107</v>
       </c>
       <c r="T13">
-        <v>0.01019974231659076</v>
+        <v>0.0007729459218460772</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.22081926136755</v>
+        <v>0.09530433333333332</v>
       </c>
       <c r="H14">
-        <v>1.22081926136755</v>
+        <v>0.285913</v>
       </c>
       <c r="I14">
-        <v>0.03000998017352515</v>
+        <v>0.002278737687251528</v>
       </c>
       <c r="J14">
-        <v>0.03000998017352515</v>
+        <v>0.00230605598015356</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>25.14712404073138</v>
+        <v>2.115232375615888</v>
       </c>
       <c r="R14">
-        <v>25.14712404073138</v>
+        <v>19.03709138054299</v>
       </c>
       <c r="S14">
-        <v>0.00449477947163011</v>
+        <v>0.0003222011121090118</v>
       </c>
       <c r="T14">
-        <v>0.00449477947163011</v>
+        <v>0.0003352301464122008</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.22081926136755</v>
+        <v>0.09530433333333332</v>
       </c>
       <c r="H15">
-        <v>1.22081926136755</v>
+        <v>0.285913</v>
       </c>
       <c r="I15">
-        <v>0.03000998017352515</v>
+        <v>0.002278737687251528</v>
       </c>
       <c r="J15">
-        <v>0.03000998017352515</v>
+        <v>0.00230605598015356</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>41.40424799213801</v>
+        <v>3.575071527765777</v>
       </c>
       <c r="R15">
-        <v>41.40424799213801</v>
+        <v>32.175643749892</v>
       </c>
       <c r="S15">
-        <v>0.007400566506607628</v>
+        <v>0.0005445699656426652</v>
       </c>
       <c r="T15">
-        <v>0.007400566506607628</v>
+        <v>0.0005665910589790662</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.09530433333333332</v>
+      </c>
+      <c r="H16">
+        <v>0.285913</v>
+      </c>
+      <c r="I16">
+        <v>0.002278737687251528</v>
+      </c>
+      <c r="J16">
+        <v>0.00230605598015356</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.8762265</v>
+      </c>
+      <c r="N16">
+        <v>25.752453</v>
+      </c>
+      <c r="O16">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P16">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q16">
+        <v>1.2271601824315</v>
+      </c>
+      <c r="R16">
+        <v>7.362961094589</v>
+      </c>
+      <c r="S16">
+        <v>0.0001869262120197085</v>
+      </c>
+      <c r="T16">
+        <v>0.0001296567041900708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1283596666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.3850789999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.003069094549282932</v>
+      </c>
+      <c r="J17">
+        <v>0.003105887912692157</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.211442</v>
+      </c>
+      <c r="N17">
+        <v>99.634326</v>
+      </c>
+      <c r="O17">
+        <v>0.211580186305583</v>
+      </c>
+      <c r="P17">
+        <v>0.2175281749633597</v>
+      </c>
+      <c r="Q17">
+        <v>4.263009624639333</v>
+      </c>
+      <c r="R17">
+        <v>38.367086621754</v>
+      </c>
+      <c r="S17">
+        <v>0.0006493595965267321</v>
+      </c>
+      <c r="T17">
+        <v>0.0006756181292886836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1283596666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.3850789999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.003069094549282932</v>
+      </c>
+      <c r="J18">
+        <v>0.003105887912692157</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.17424933333334</v>
+      </c>
+      <c r="N18">
+        <v>153.522748</v>
+      </c>
+      <c r="O18">
+        <v>0.3260158715178649</v>
+      </c>
+      <c r="P18">
+        <v>0.3351809012869699</v>
+      </c>
+      <c r="Q18">
+        <v>6.568709586343555</v>
+      </c>
+      <c r="R18">
+        <v>59.11838627709199</v>
+      </c>
+      <c r="S18">
+        <v>0.001000573534255204</v>
+      </c>
+      <c r="T18">
+        <v>0.001041034309872463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1283596666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.3850789999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.003069094549282932</v>
+      </c>
+      <c r="J19">
+        <v>0.003105887912692157</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.19450366666666</v>
+      </c>
+      <c r="N19">
+        <v>66.58351099999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1413945597650736</v>
+      </c>
+      <c r="P19">
+        <v>0.1453694746776606</v>
+      </c>
+      <c r="Q19">
+        <v>2.848879092485443</v>
+      </c>
+      <c r="R19">
+        <v>25.63991183236899</v>
+      </c>
+      <c r="S19">
+        <v>0.0004339532726732473</v>
+      </c>
+      <c r="T19">
+        <v>0.0004515012942757547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1283596666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.3850789999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.003069094549282932</v>
+      </c>
+      <c r="J20">
+        <v>0.003105887912692157</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>37.51216133333333</v>
+      </c>
+      <c r="N20">
+        <v>112.536484</v>
+      </c>
+      <c r="O20">
+        <v>0.2389787857941174</v>
+      </c>
+      <c r="P20">
+        <v>0.2456970098971044</v>
+      </c>
+      <c r="Q20">
+        <v>4.815048524692888</v>
+      </c>
+      <c r="R20">
+        <v>43.335436722236</v>
+      </c>
+      <c r="S20">
+        <v>0.000733448488874979</v>
+      </c>
+      <c r="T20">
+        <v>0.000763107373224022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1283596666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.3850789999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.003069094549282932</v>
+      </c>
+      <c r="J21">
+        <v>0.003105887912692157</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.8762265</v>
+      </c>
+      <c r="N21">
+        <v>25.752453</v>
+      </c>
+      <c r="O21">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P21">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q21">
+        <v>1.6527881414645</v>
+      </c>
+      <c r="R21">
+        <v>9.916728848786999</v>
+      </c>
+      <c r="S21">
+        <v>0.00025175965695277</v>
+      </c>
+      <c r="T21">
+        <v>0.0001746268060312342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.4863575</v>
+      </c>
+      <c r="H22">
+        <v>2.972715</v>
+      </c>
+      <c r="I22">
+        <v>0.03553898058478239</v>
+      </c>
+      <c r="J22">
+        <v>0.02397668942315387</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.211442</v>
+      </c>
+      <c r="N22">
+        <v>99.634326</v>
+      </c>
+      <c r="O22">
+        <v>0.211580186305583</v>
+      </c>
+      <c r="P22">
+        <v>0.2175281749633597</v>
+      </c>
+      <c r="Q22">
+        <v>49.364075902515</v>
+      </c>
+      <c r="R22">
+        <v>296.18445541509</v>
+      </c>
+      <c r="S22">
+        <v>0.007519344133238755</v>
+      </c>
+      <c r="T22">
+        <v>0.00521560549188195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.4863575</v>
+      </c>
+      <c r="H23">
+        <v>2.972715</v>
+      </c>
+      <c r="I23">
+        <v>0.03553898058478239</v>
+      </c>
+      <c r="J23">
+        <v>0.02397668942315387</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.17424933333334</v>
+      </c>
+      <c r="N23">
+        <v>153.522748</v>
+      </c>
+      <c r="O23">
+        <v>0.3260158715178649</v>
+      </c>
+      <c r="P23">
+        <v>0.3351809012869699</v>
+      </c>
+      <c r="Q23">
+        <v>76.06322930347001</v>
+      </c>
+      <c r="R23">
+        <v>456.37937582082</v>
+      </c>
+      <c r="S23">
+        <v>0.01158627172820431</v>
+      </c>
+      <c r="T23">
+        <v>0.008036528370730472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.22081926136755</v>
-      </c>
-      <c r="H16">
-        <v>1.22081926136755</v>
-      </c>
-      <c r="I16">
-        <v>0.03000998017352515</v>
-      </c>
-      <c r="J16">
-        <v>0.03000998017352515</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="N16">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="O16">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="P16">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="Q16">
-        <v>12.55212966262834</v>
-      </c>
-      <c r="R16">
-        <v>12.55212966262834</v>
-      </c>
-      <c r="S16">
-        <v>0.002243558931090409</v>
-      </c>
-      <c r="T16">
-        <v>0.002243558931090409</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.4863575</v>
+      </c>
+      <c r="H24">
+        <v>2.972715</v>
+      </c>
+      <c r="I24">
+        <v>0.03553898058478239</v>
+      </c>
+      <c r="J24">
+        <v>0.02397668942315387</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>22.19450366666666</v>
+      </c>
+      <c r="N24">
+        <v>66.58351099999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1413945597650736</v>
+      </c>
+      <c r="P24">
+        <v>0.1453694746776606</v>
+      </c>
+      <c r="Q24">
+        <v>32.98896698372749</v>
+      </c>
+      <c r="R24">
+        <v>197.933801902365</v>
+      </c>
+      <c r="S24">
+        <v>0.005025018514284806</v>
+      </c>
+      <c r="T24">
+        <v>0.003485478745953298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.4863575</v>
+      </c>
+      <c r="H25">
+        <v>2.972715</v>
+      </c>
+      <c r="I25">
+        <v>0.03553898058478239</v>
+      </c>
+      <c r="J25">
+        <v>0.02397668942315387</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.51216133333333</v>
+      </c>
+      <c r="N25">
+        <v>112.536484</v>
+      </c>
+      <c r="O25">
+        <v>0.2389787857941174</v>
+      </c>
+      <c r="P25">
+        <v>0.2456970098971044</v>
+      </c>
+      <c r="Q25">
+        <v>55.75648233901</v>
+      </c>
+      <c r="R25">
+        <v>334.53889403406</v>
+      </c>
+      <c r="S25">
+        <v>0.008493062428512008</v>
+      </c>
+      <c r="T25">
+        <v>0.005891000898500434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.4863575</v>
+      </c>
+      <c r="H26">
+        <v>2.972715</v>
+      </c>
+      <c r="I26">
+        <v>0.03553898058478239</v>
+      </c>
+      <c r="J26">
+        <v>0.02397668942315387</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.8762265</v>
+      </c>
+      <c r="N26">
+        <v>25.752453</v>
+      </c>
+      <c r="O26">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P26">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q26">
+        <v>19.13867582997375</v>
+      </c>
+      <c r="R26">
+        <v>76.55470331989501</v>
+      </c>
+      <c r="S26">
+        <v>0.002915283780542513</v>
+      </c>
+      <c r="T26">
+        <v>0.001348075916087713</v>
       </c>
     </row>
   </sheetData>
